--- a/data/trans_dic/P40_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P40_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1499766169255453</v>
+        <v>0.1483516089245899</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1567375793441226</v>
+        <v>0.1567621003027881</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1437966157661199</v>
+        <v>0.1439895989741992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2003929435869891</v>
+        <v>0.2008374232795772</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2468274019448999</v>
+        <v>0.2469461734139843</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.244112149140499</v>
+        <v>0.2425103531748123</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2576467587527066</v>
+        <v>0.2555692894217566</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2805159112066372</v>
+        <v>0.2822360727712926</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2068708291349458</v>
+        <v>0.2054448084925844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2078271488868098</v>
+        <v>0.2087180335435159</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2097876498546087</v>
+        <v>0.2088640628679104</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2484999473519645</v>
+        <v>0.2483989419074953</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2057129891080601</v>
+        <v>0.2068126088460248</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2189980607946789</v>
+        <v>0.217951506303229</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2009564577783438</v>
+        <v>0.2016733869522545</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2626156925517009</v>
+        <v>0.2638352178469466</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3138013955725463</v>
+        <v>0.3135434371263247</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3154448515735022</v>
+        <v>0.3124682841784838</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3283359756937285</v>
+        <v>0.3288481872610953</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3322212859630987</v>
+        <v>0.3349292520675886</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2518909963113935</v>
+        <v>0.2495241326127909</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2552783871012254</v>
+        <v>0.2531271661565633</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2553811963035046</v>
+        <v>0.2543877546677175</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2902948535200561</v>
+        <v>0.2903683569040665</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2458989610463466</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2750981231296176</v>
+        <v>0.2750981231296177</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2398935001323918</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1312560407245273</v>
+        <v>0.1299596167838028</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1392506939747595</v>
+        <v>0.1387583988381086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1326117308659217</v>
+        <v>0.1359604715309499</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1385895684330007</v>
+        <v>0.141461418922572</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2913172657866917</v>
+        <v>0.2944114094946254</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2391781395819147</v>
+        <v>0.2350307166597689</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2185204553289175</v>
+        <v>0.2190432176652906</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2524979754238844</v>
+        <v>0.251184017474421</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2212614695951408</v>
+        <v>0.2213513162199857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1957955048178371</v>
+        <v>0.1948705685525437</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1805283334635148</v>
+        <v>0.1812703488661268</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2025338639298274</v>
+        <v>0.2016476055382322</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1782727478849598</v>
+        <v>0.1764635655261505</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1893659469519355</v>
+        <v>0.1873928403387775</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1793898294993875</v>
+        <v>0.179271341699356</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1837328935473801</v>
+        <v>0.1838788913568162</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3538715524728878</v>
+        <v>0.3585388959184632</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2935768920988766</v>
+        <v>0.2965804354301305</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2726975743507904</v>
+        <v>0.2757604055738128</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.299624351160156</v>
+        <v>0.2972024139630784</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2591630291016767</v>
+        <v>0.2598265171325134</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.233281403238106</v>
+        <v>0.2324693657120599</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2189326400509344</v>
+        <v>0.2176872280418383</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2353752009840999</v>
+        <v>0.2327137377740907</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1239318504072907</v>
+        <v>0.1218159816369359</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1297718792523417</v>
+        <v>0.1290025287420278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1301549761323129</v>
+        <v>0.1314306908208911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1475585802397698</v>
+        <v>0.1495674629901587</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2123459571629879</v>
+        <v>0.2166277561714351</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2322282292580868</v>
+        <v>0.2349843605162535</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1908968397528346</v>
+        <v>0.1899783356840686</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2203661465902494</v>
+        <v>0.2176888655171212</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1766371774138458</v>
+        <v>0.1773965724677961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1924715941575024</v>
+        <v>0.190190329266259</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1687281204462872</v>
+        <v>0.1708280369041417</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1907180803032746</v>
+        <v>0.1916986934253677</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1774913207034792</v>
+        <v>0.1794113567023974</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1896524654127584</v>
+        <v>0.1883397822138496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1841246703134465</v>
+        <v>0.1850216570000595</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.206661973041453</v>
+        <v>0.2085629096807217</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2795472238411494</v>
+        <v>0.278452318531021</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3016013600964291</v>
+        <v>0.2995516903759072</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2529762466360082</v>
+        <v>0.253881695766846</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2754542493208782</v>
+        <v>0.2743564522595697</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2213339653988055</v>
+        <v>0.2195115897473328</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2358110954836073</v>
+        <v>0.2355149193080829</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2105345138337302</v>
+        <v>0.2111792849852683</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2315635031225169</v>
+        <v>0.2317300631931702</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1346279102375281</v>
+        <v>0.1390621007757715</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1501853698802749</v>
+        <v>0.1496763407570398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.135552164882809</v>
+        <v>0.1340012276005173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1665832960448904</v>
+        <v>0.167215547176212</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.251226729636894</v>
+        <v>0.2501012342678259</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2450800012595337</v>
+        <v>0.2441655403634714</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2229918968074426</v>
+        <v>0.2260918116094314</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2558979838373707</v>
+        <v>0.2566537587396642</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2045273004214021</v>
+        <v>0.2019615482114715</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2052217365715893</v>
+        <v>0.2054686409683976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1901009629448198</v>
+        <v>0.1899974973996109</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2209733259951609</v>
+        <v>0.2206564179235014</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1829737090028511</v>
+        <v>0.1831517931116912</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1990544429171746</v>
+        <v>0.200307866945185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1824821392248189</v>
+        <v>0.1799754528287991</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2155986820105721</v>
+        <v>0.2161208064572597</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3054488022908383</v>
+        <v>0.3094119257512915</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3004391275876699</v>
+        <v>0.2966801246273481</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2832772562813929</v>
+        <v>0.281879560160775</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3016904018745915</v>
+        <v>0.3013325650172018</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2394903528182398</v>
+        <v>0.2401496862189713</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2437980010943121</v>
+        <v>0.2449607676790776</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2284053253075844</v>
+        <v>0.2284086067296214</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2543998568841984</v>
+        <v>0.2529230678388659</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1469235348086214</v>
+        <v>0.1476316804644142</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1547903336427044</v>
+        <v>0.1568616509540331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1474156721142257</v>
+        <v>0.14683990600901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1747623120139627</v>
+        <v>0.1726949354520423</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2690716754429285</v>
+        <v>0.2698642362474384</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2545420811720583</v>
+        <v>0.2546412928195957</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2355410011492082</v>
+        <v>0.2366525358226369</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2634533999736892</v>
+        <v>0.263461841362173</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2129795795696373</v>
+        <v>0.213429527314259</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2099048681617678</v>
+        <v>0.2109125802299619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1964164342721884</v>
+        <v>0.1963208416829834</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2225750091258417</v>
+        <v>0.2234473046945299</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1729439930733341</v>
+        <v>0.1731367907260616</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1824032877987775</v>
+        <v>0.1835106954056111</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1710607056332636</v>
+        <v>0.1718419085449647</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2010602502130506</v>
+        <v>0.1999442715242942</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3011307680798105</v>
+        <v>0.2998451651283331</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2851459237694252</v>
+        <v>0.2858449494333751</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2654327143255668</v>
+        <v>0.2671154570327466</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2878868107266946</v>
+        <v>0.2874052296363016</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2341695858661786</v>
+        <v>0.2336515204656683</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2298997186876897</v>
+        <v>0.2320779347550173</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2166323961852996</v>
+        <v>0.2159155085533821</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2401859261862521</v>
+        <v>0.2416579445852227</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>104086</v>
+        <v>102958</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>109372</v>
+        <v>109389</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>96286</v>
+        <v>96415</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>138413</v>
+        <v>138720</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>169904</v>
+        <v>169986</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>169141</v>
+        <v>168031</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>172258</v>
+        <v>170869</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>205540</v>
+        <v>206801</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>285971</v>
+        <v>283999</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>289022</v>
+        <v>290261</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>280733</v>
+        <v>279498</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>353723</v>
+        <v>353579</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>142767</v>
+        <v>143530</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>152818</v>
+        <v>152087</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>134560</v>
+        <v>135040</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>181391</v>
+        <v>182234</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>216006</v>
+        <v>215828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>218566</v>
+        <v>216504</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>219520</v>
+        <v>219862</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>243426</v>
+        <v>245410</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>348205</v>
+        <v>344933</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>355012</v>
+        <v>352020</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>341746</v>
+        <v>340416</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>413215</v>
+        <v>413319</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>126111</v>
+        <v>124865</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>140006</v>
+        <v>139511</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>135067</v>
+        <v>138477</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>145369</v>
+        <v>148381</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>282110</v>
+        <v>285106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>245844</v>
+        <v>241581</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>225968</v>
+        <v>226509</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>270384</v>
+        <v>268977</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>426856</v>
+        <v>427030</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>398109</v>
+        <v>396229</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>370551</v>
+        <v>372074</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>429322</v>
+        <v>427444</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>171285</v>
+        <v>169546</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>190392</v>
+        <v>188409</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>182711</v>
+        <v>182590</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>192721</v>
+        <v>192874</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>342687</v>
+        <v>347207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>301759</v>
+        <v>304846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>281992</v>
+        <v>285159</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>320849</v>
+        <v>318256</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>499976</v>
+        <v>501256</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>474329</v>
+        <v>472678</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>449380</v>
+        <v>446823</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>498938</v>
+        <v>493296</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>83972</v>
+        <v>82538</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>96650</v>
+        <v>96077</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>98712</v>
+        <v>99680</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>118500</v>
+        <v>120114</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>144831</v>
+        <v>147752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>179326</v>
+        <v>181455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>148353</v>
+        <v>147639</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>178994</v>
+        <v>176820</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>240159</v>
+        <v>241192</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>291972</v>
+        <v>288512</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>259092</v>
+        <v>262316</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>308073</v>
+        <v>309657</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>120262</v>
+        <v>121563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>141247</v>
+        <v>140269</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>139644</v>
+        <v>140324</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>165965</v>
+        <v>167491</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>190666</v>
+        <v>189919</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>232896</v>
+        <v>231314</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>196597</v>
+        <v>197301</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>223740</v>
+        <v>222848</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>300930</v>
+        <v>298452</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>357717</v>
+        <v>357268</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>323288</v>
+        <v>324278</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>374052</v>
+        <v>374321</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>126731</v>
+        <v>130905</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>140339</v>
+        <v>139863</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>125614</v>
+        <v>124177</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>164928</v>
+        <v>165554</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>260927</v>
+        <v>259758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>255416</v>
+        <v>254463</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>230680</v>
+        <v>233887</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>286360</v>
+        <v>287206</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>404955</v>
+        <v>399875</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>405644</v>
+        <v>406132</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>372818</v>
+        <v>372615</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>466056</v>
+        <v>465387</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>172241</v>
+        <v>172408</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>186004</v>
+        <v>187175</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>169103</v>
+        <v>166780</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>213456</v>
+        <v>213973</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>317243</v>
+        <v>321359</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>313110</v>
+        <v>309193</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>293044</v>
+        <v>291598</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>337604</v>
+        <v>337203</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>474180</v>
+        <v>475485</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>481894</v>
+        <v>484192</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>447939</v>
+        <v>447946</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>536556</v>
+        <v>533441</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>480987</v>
+        <v>483305</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>523567</v>
+        <v>530573</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>497264</v>
+        <v>495322</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>617394</v>
+        <v>610090</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>908765</v>
+        <v>911442</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>899839</v>
+        <v>900189</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>827757</v>
+        <v>831663</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>983962</v>
+        <v>983993</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1416555</v>
+        <v>1419547</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1452028</v>
+        <v>1458999</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1352816</v>
+        <v>1352158</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1617591</v>
+        <v>1623931</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>566170</v>
+        <v>566801</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>616966</v>
+        <v>620711</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>577024</v>
+        <v>579659</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>710298</v>
+        <v>706356</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1017042</v>
+        <v>1012700</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1008027</v>
+        <v>1010498</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>932805</v>
+        <v>938719</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1075217</v>
+        <v>1073418</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1557492</v>
+        <v>1554046</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1590343</v>
+        <v>1605411</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1492053</v>
+        <v>1487116</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1745581</v>
+        <v>1756279</v>
       </c>
     </row>
     <row r="24">
